--- a/testDriver/testCase/hahah.xlsx
+++ b/testDriver/testCase/hahah.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nali/work/ximalaya/autotest/Newuiautotest/Android/testDriver/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nali/work/ximalaya/autotest/Newuiautotest/testDriver/testCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -212,18 +212,22 @@
     <t>Id=com.ximalaya.ting.android.main.application:id/main_login</t>
   </si>
   <si>
-    <t>text==哈哈</t>
+    <t>text==注册</t>
+    <rPh sb="6" eb="7">
+      <t>zhu'ce</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -231,7 +235,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,8 +314,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -582,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="99" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -4457,6 +4467,7 @@
       <c r="J501" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>